--- a/计划.xlsx
+++ b/计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>2020年上半年工作计划</t>
   </si>
@@ -67,6 +67,9 @@
 (2)6道offer题
 (3)12道面试题
 (4)代码重构</t>
+  </si>
+  <si>
+    <t>ceshi</t>
   </si>
   <si>
     <t>3.30 - 4.05(7天)</t>
@@ -164,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -195,7 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,45 +227,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,63 +297,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,55 +350,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,121 +470,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +541,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,7 +613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,62 +636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" spans="1:6">
+    <row r="3" ht="85" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1243,6 +1246,9 @@
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:6">
@@ -1251,10 +1257,10 @@
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:6">
@@ -1263,10 +1269,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:6">
@@ -1275,10 +1281,10 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:6">
@@ -1287,10 +1293,10 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1299,10 +1305,10 @@
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:1">
@@ -1310,13 +1316,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -1326,7 +1332,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -1336,7 +1342,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -1346,7 +1352,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -1356,7 +1362,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -1365,13 +1371,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -1381,7 +1387,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -1391,7 +1397,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -1401,7 +1407,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -1411,7 +1417,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1432,43 +1438,43 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1524,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>2020年上半年工作计划</t>
   </si>
@@ -56,20 +56,15 @@
     <t>(1)代码重构</t>
   </si>
   <si>
-    <t>(1)每天一道剑指 offer地址: https://www.nowcoder.com/ta/coding-interviews
-(2)每天两道面试题</t>
+    <t>(1)每天3道面试题</t>
   </si>
   <si>
     <t>3.24 - 3.29(6天)</t>
   </si>
   <si>
     <t>(1)完成第2天到第5天的教程
-(2)6道offer题
-(3)12道面试题
-(4)代码重构</t>
-  </si>
-  <si>
-    <t>ceshi</t>
+(2)18道面试题
+(3)代码重构</t>
   </si>
   <si>
     <t>3.30 - 4.05(7天)</t>
@@ -1228,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" spans="1:7">
+    <row r="3" ht="85" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1246,9 +1241,6 @@
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:6">
@@ -1257,10 +1249,10 @@
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:6">
@@ -1269,10 +1261,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:6">
@@ -1281,10 +1273,10 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:6">
@@ -1293,10 +1285,10 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1305,10 +1297,10 @@
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:1">
@@ -1316,13 +1308,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -1332,7 +1324,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -1342,7 +1334,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -1352,7 +1344,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -1362,7 +1354,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -1371,13 +1363,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -1387,7 +1379,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -1397,7 +1389,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -1407,7 +1399,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -1417,7 +1409,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1438,43 +1430,43 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -1486,7 +1478,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>2020年上半年工作计划</t>
   </si>
@@ -53,7 +53,8 @@
 (3)学习技能 : vue.js, rabbitmq, nuxt.js, springcloud, HLS, spring sucurity oauth2, es, docker 部署 等</t>
   </si>
   <si>
-    <t>(1)代码重构</t>
+    <t>(1)代码重构
+(2)管理的书籍</t>
   </si>
   <si>
     <t>(1)每天3道面试题</t>
@@ -67,10 +68,19 @@
 (3)代码重构</t>
   </si>
   <si>
+    <t>都没完成</t>
+  </si>
+  <si>
+    <t>堕落了</t>
+  </si>
+  <si>
     <t>3.30 - 4.05(7天)</t>
   </si>
   <si>
-    <t>(1)完成第6天到第8天的教程</t>
+    <t>(1)完成第6天到第8天的教程
+(2)21道面试题
+(3)代码重构
+(4)管理的书籍</t>
   </si>
   <si>
     <t>4.06 - 4.12(7天)</t>
@@ -164,8 +174,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -201,6 +211,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,16 +271,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -240,21 +317,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,66 +345,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,24 +355,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,19 +421,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,121 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +546,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,6 +584,35 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,50 +646,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,149 +654,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,7 +819,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -819,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1171,7 +1184,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1223,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" spans="1:6">
+    <row r="3" ht="85" customHeight="1" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1242,65 +1255,71 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:6">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="8"/>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="8"/>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:1">
@@ -1308,53 +1327,53 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -1363,53 +1382,53 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1430,43 +1449,43 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -1478,7 +1497,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1535,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
